--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4011.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4011.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.575630193329108</v>
+        <v>3.720121383666992</v>
       </c>
       <c r="B1">
-        <v>2.578324412452564</v>
+        <v>5.971473217010498</v>
       </c>
       <c r="C1">
-        <v>3.197156103291598</v>
+        <v>6.307316780090332</v>
       </c>
       <c r="D1">
-        <v>3.575760715239788</v>
+        <v>9.894746780395508</v>
       </c>
       <c r="E1">
-        <v>1.985103045254678</v>
+        <v>7.229799270629883</v>
       </c>
     </row>
   </sheetData>
